--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2293748.994295286</v>
+        <v>2434921.988473339</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18084029.22468238</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513771.156497792</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5021758.33434885</v>
+        <v>5339736.540628293</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>225.0806982601026</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>295.7372906054831</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>13.27415091459354</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>5.64492333244486</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>243.9210525060461</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>310.6883293919656</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>14.7689033560442</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>105.3470044052231</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>378.8930818762257</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>243.2369870320178</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>73.29899740799696</v>
       </c>
       <c r="I10" t="n">
-        <v>28.85560178398626</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314378</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>73.91514782415169</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>104.9141091864632</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314378</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y14" t="n">
-        <v>166.6956178315218</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>167.6892286721828</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.292363805517355</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -2005,10 +2007,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>28.46824604904392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>2.292363805516904</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.951038786483</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2245,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>159.271233852086</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>67.84972440587259</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>212.9450041785558</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.05677735225751</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>122.1591039832982</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>16.92574903168972</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>72.13424985736003</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>122.1591039832982</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3430,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>24.40875262509081</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3472,10 +3474,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>13.99728392830417</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3661,22 +3663,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>111.9183464525219</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>90.30617524481254</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3746,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V41" t="n">
-        <v>344.4449714777196</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023221</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>154.8925341070162</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4144,10 +4146,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>14.14416275345395</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>547.9560900011804</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1398.458894115283</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>993.603439526316</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>574.4609761056267</v>
+        <v>789.5336382545983</v>
       </c>
       <c r="Y2" t="n">
-        <v>570.2152564456842</v>
+        <v>381.2475145542517</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4409,19 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1037.750113235229</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>865.1884017184542</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>699.3104089199769</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>529.5524051707141</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>352.8453511324703</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>187.254076158298</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>47.35190184867253</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4495,43 +4497,43 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1653.597487995201</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1653.597487995201</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.568731954216</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W4" t="n">
-        <v>1229.568731954216</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X4" t="n">
-        <v>1229.568731954216</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>1229.568731954216</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>2032.928509558225</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1594.786036741649</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1158.876251916093</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>725.1015070743881</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>297.2340774835959</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>297.2340774835959</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726458</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726458</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726458</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762204</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2075.350505591519</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2074.535455042957</v>
       </c>
       <c r="X5" t="n">
-        <v>978.5013801460308</v>
+        <v>2059.433395662672</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.2556604860882</v>
+        <v>2055.187676002729</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718.8484307043673</v>
+        <v>838.9151821155851</v>
       </c>
       <c r="C7" t="n">
-        <v>546.2867191875922</v>
+        <v>666.3534705988101</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>500.4754778003328</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>330.71747405107</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>154.0104200128262</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>89.90148899448771</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="U7" t="n">
-        <v>1410.113124522955</v>
+        <v>2062.52713873033</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.113124522955</v>
+        <v>1775.57163060076</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.086720109246</v>
+        <v>1503.545226187052</v>
       </c>
       <c r="X7" t="n">
-        <v>1138.086720109246</v>
+        <v>1258.153471520464</v>
       </c>
       <c r="Y7" t="n">
-        <v>910.6670494233545</v>
+        <v>1030.733800834572</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>927.8253404203546</v>
+        <v>1919.879325414605</v>
       </c>
       <c r="C8" t="n">
-        <v>489.6828676037779</v>
+        <v>1885.777256638432</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>1449.867471812877</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>1016.092726971172</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>588.2252973803797</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4808,10 +4810,10 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
         <v>632.7278666362198</v>
@@ -4832,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>2181.553498026298</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>1762.411034605609</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y8" t="n">
-        <v>1354.124910905262</v>
+        <v>1942.138491859109</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4886,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
         <v>1064.863269197077</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>568.9155211348376</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="E10" t="n">
-        <v>399.1575173855749</v>
+        <v>558.3988860875784</v>
       </c>
       <c r="F10" t="n">
-        <v>222.4504633473311</v>
+        <v>381.6918320493346</v>
       </c>
       <c r="G10" t="n">
-        <v>222.4504633473311</v>
+        <v>216.1005570751623</v>
       </c>
       <c r="H10" t="n">
-        <v>82.54828903770559</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622.445700918609</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.445700918609</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1622.445700918609</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.670956076904</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>760.8035264861119</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G11" t="n">
-        <v>359.4056951093758</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>70.27554055259202</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>505.5302280055099</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1339.880519963688</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="L11" t="n">
-        <v>1339.880519963688</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M11" t="n">
-        <v>1339.880519963688</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N11" t="n">
-        <v>1339.880519963688</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O11" t="n">
-        <v>1969.814302084553</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P11" t="n">
-        <v>2798.12417691795</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q11" t="n">
-        <v>3344.622962876544</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>3513.777027629601</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3430.125153813438</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3210.057926686477</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>2950.835624003494</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2876.173858524553</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2876.173858524553</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2457.031395103863</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.745271403517</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>112.0111927363795</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.33921371304962</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>420.897538679262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.603585304986</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.603585304986</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.603585304986</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.603585304986</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.603585304986</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.603585304986</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.342523937061</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.7715776295233</v>
+        <v>811.7546776883896</v>
       </c>
       <c r="C13" t="n">
-        <v>748.2098661127483</v>
+        <v>639.1929661716146</v>
       </c>
       <c r="D13" t="n">
-        <v>582.331873314271</v>
+        <v>639.1929661716146</v>
       </c>
       <c r="E13" t="n">
-        <v>412.5738695650082</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>235.8668155267644</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>70.27554055259202</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>70.27554055259202</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>431.6136802884174</v>
+        <v>463.5989800066025</v>
       </c>
       <c r="L13" t="n">
-        <v>849.8235620563785</v>
+        <v>881.8088617745635</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955477</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113121</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338903</v>
       </c>
       <c r="P13" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q13" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R13" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="S13" t="n">
-        <v>2668.695981412707</v>
+        <v>2559.679081471574</v>
       </c>
       <c r="T13" t="n">
-        <v>2422.816534991162</v>
+        <v>2313.799635050029</v>
       </c>
       <c r="U13" t="n">
-        <v>2144.383534244268</v>
+        <v>2035.366634303134</v>
       </c>
       <c r="V13" t="n">
-        <v>1857.428026114698</v>
+        <v>1748.411126173565</v>
       </c>
       <c r="W13" t="n">
-        <v>1585.40162170099</v>
+        <v>1476.384721759856</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.009867034402</v>
+        <v>1230.992967093269</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.590196348511</v>
+        <v>1003.573296407377</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2095.100127184005</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1656.957654367428</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1221.047869541873</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>787.273124700168</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>359.4056951093758</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G14" t="n">
-        <v>359.4056951093758</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>70.27554055259202</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>505.5302280055099</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1339.880519963688</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1339.880519963688</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1339.880519963688</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>1339.880519963688</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1969.814302084553</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2798.12417691795</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3344.622962876544</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3513.777027629601</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3513.777027629601</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3513.777027629601</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3513.777027629601</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3513.777027629601</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3108.921573040634</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2689.779109619945</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2521.399697668913</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>112.0111927363795</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.33921371304962</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>420.897538679262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>420.897538679262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>420.897538679262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>420.897538679262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>420.897538679262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>420.897538679262</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P15" t="n">
-        <v>1075.603585304986</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1616.342523937061</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.4557083659962</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C16" t="n">
-        <v>810.8939968492211</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>810.8939968492211</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>641.1359930999583</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>464.4289390617145</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>298.8376640875422</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>158.9354897779167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>431.6136802884174</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>849.8235620563785</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2665.517329160764</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2506.27596045876</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2260.396514037216</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>1981.963513290321</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V16" t="n">
-        <v>1695.008005160751</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W16" t="n">
-        <v>1422.981600747043</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X16" t="n">
-        <v>1177.589846080455</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1175.274327084983</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="17">
@@ -5516,13 +5518,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1368.288338304628</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N17" t="n">
         <v>3569.079287993934</v>
@@ -5595,25 +5597,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>405.0384966383147</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,43 +5752,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5795,7 +5797,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1083.7810821021</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>911.2193705853248</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>745.3413777868475</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1748.411126173566</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1503.019371506979</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.599700821087</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6181,16 +6183,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W25" t="n">
-        <v>1511.897341062215</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="26">
@@ -6236,16 +6238,16 @@
         <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>3168.718933692368</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6543,16 +6545,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N30" t="n">
-        <v>1300.985674363279</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2701.823733979953</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W31" t="n">
-        <v>1654.13042623514</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X31" t="n">
-        <v>1408.738671568553</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y31" t="n">
-        <v>1181.319000882661</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6780,22 +6782,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M33" t="n">
-        <v>1765.500601749588</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1890.555778681944</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6947,19 +6949,19 @@
         <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E37" t="n">
         <v>673.1212928181459</v>
@@ -7084,7 +7086,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7120,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7156,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,40 +7174,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7259,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1056.803889081883</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="M39" t="n">
-        <v>1648.327823655249</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7309,19 +7311,19 @@
         <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>677.2880215932362</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932362</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439735</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057297</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>944.3277981947242</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1853253781475</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>70.27554055259201</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>70.27554055259201</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>70.27554055259201</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>70.27554055259201</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>70.27554055259201</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>70.27554055259201</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>265.8041957880483</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1100.154487746226</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>1100.154487746226</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M41" t="n">
-        <v>1100.154487746226</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N41" t="n">
-        <v>1100.154487746226</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O41" t="n">
-        <v>1969.814302084552</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P41" t="n">
-        <v>2798.124176917949</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>3344.622962876543</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>3513.7770276296</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3430.125153813437</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3210.057926686476</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2950.835624003493</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2602.911410389635</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2198.055955800668</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>1778.913492379979</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1370.627368679632</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>112.0111927363795</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>70.27554055259201</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>96.3392137130496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>420.897538679262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>1075.603585304986</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>1075.603585304986</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.603585304986</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.603585304986</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O42" t="n">
-        <v>1075.603585304986</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="P42" t="n">
-        <v>1075.603585304986</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="Q42" t="n">
-        <v>1616.342523937061</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>758.3515566755764</v>
+        <v>3346.878440713112</v>
       </c>
       <c r="C43" t="n">
-        <v>585.7898451588013</v>
+        <v>3174.316729196337</v>
       </c>
       <c r="D43" t="n">
-        <v>419.911852360324</v>
+        <v>3008.43873639786</v>
       </c>
       <c r="E43" t="n">
-        <v>250.1538486110613</v>
+        <v>2838.680732648597</v>
       </c>
       <c r="F43" t="n">
-        <v>73.44679457281748</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G43" t="n">
-        <v>70.27554055259201</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="H43" t="n">
-        <v>70.27554055259201</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I43" t="n">
-        <v>70.27554055259201</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J43" t="n">
-        <v>156.8552257172819</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K43" t="n">
-        <v>431.6136802884174</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L43" t="n">
-        <v>849.8235620563785</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M43" t="n">
-        <v>1309.307429237292</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N43" t="n">
-        <v>1751.566232394936</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O43" t="n">
-        <v>2171.235481620718</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P43" t="n">
-        <v>2518.742375591059</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q43" t="n">
-        <v>2686.935150455392</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R43" t="n">
-        <v>2665.517329160764</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S43" t="n">
-        <v>2506.27596045876</v>
+        <v>5094.802844496296</v>
       </c>
       <c r="T43" t="n">
-        <v>2260.396514037216</v>
+        <v>4848.923398074751</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.963513290321</v>
+        <v>4570.490397327857</v>
       </c>
       <c r="V43" t="n">
-        <v>1695.008005160751</v>
+        <v>4283.534889198288</v>
       </c>
       <c r="W43" t="n">
-        <v>1422.981600747043</v>
+        <v>4011.508484784579</v>
       </c>
       <c r="X43" t="n">
-        <v>1177.589846080455</v>
+        <v>3766.116730117991</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1701753945636</v>
+        <v>3538.6970594321</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1806.386762000081</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1368.244289183505</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>932.3345043579491</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5597595162442</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>70.692329925452</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>70.692329925452</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>70.692329925452</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>70.27554055259201</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>70.27554055259201</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>904.6258325107699</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L44" t="n">
-        <v>1058.804548241297</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M44" t="n">
-        <v>1928.464362579623</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N44" t="n">
-        <v>1928.464362579623</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O44" t="n">
-        <v>2798.124176917949</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P44" t="n">
-        <v>2798.124176917949</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q44" t="n">
-        <v>3344.622962876543</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3513.7770276296</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3430.125153813437</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3430.125153813437</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3170.902851130454</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2808.285901064281</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2651.828795905678</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2232.686332484989</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2232.686332484989</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>112.0111927363795</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>70.27554055259201</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.3392137130496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>420.897538679262</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>758.3515566755764</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>585.7898451588013</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>419.911852360324</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>250.1538486110613</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>235.8668155267644</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G46" t="n">
-        <v>70.27554055259201</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>70.27554055259201</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>70.27554055259201</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>431.6136802884174</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>849.8235620563785</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2665.517329160764</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2506.27596045876</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2260.396514037216</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>1981.963513290321</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1695.008005160751</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1422.981600747043</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1177.589846080455</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1701753945636</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8055,22 +8057,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>262.4693064538401</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8143,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>44.02620412648071</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611194</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>276.9662446538998</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,13 +8458,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8532,16 +8534,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>636.2967496170359</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>636.2967496170359</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>839.1644551322528</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1133.488385918383</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9264,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9479,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,19 +9886,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>956.4233740001619</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10127,10 +10129,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10191,19 +10193,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>28.2456490882098</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10430,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10595,13 +10597,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>979.9836670718064</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10671,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>109.7971848772035</v>
       </c>
       <c r="M39" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>197.5036921570266</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>878.4442569074001</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L44" t="n">
-        <v>155.7360764954818</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>878.4442569073999</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>878.4442569073999</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>285.07563274136</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.14631452530692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>237.5076446318213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3.146865729424519</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.8531101735154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8.789189859684114</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>56.36113619101559</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.146865729424327</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>197.1718905122113</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>143.6516710866793</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.4233680290251</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>58.91774794908541</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>73.62918697961807</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>14.54580908779212</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>245.9143659360608</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>461857.3685021984</v>
+        <v>463971.0889060777</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>353135.7070841166</v>
+        <v>461267.8196964595</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>353135.7070841166</v>
+        <v>461267.8196964595</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>461267.8196964596</v>
+        <v>461267.8196964595</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>353135.7070841166</v>
+        <v>461267.8196964595</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>353135.7070841166</v>
+        <v>461267.8196964595</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>482532.5879013676</v>
       </c>
       <c r="C2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="D2" t="n">
         <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>363014.7081720674</v>
+        <v>474171.8257236172</v>
       </c>
       <c r="F2" t="n">
-        <v>363014.7081720674</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="G2" t="n">
         <v>474171.825723617</v>
@@ -26335,25 +26337,25 @@
         <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
+        <v>474171.8257236171</v>
+      </c>
+      <c r="K2" t="n">
+        <v>474171.8257236171</v>
+      </c>
+      <c r="L2" t="n">
         <v>474171.825723617</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>474171.8257236169</v>
+      </c>
+      <c r="N2" t="n">
+        <v>474171.8257236169</v>
+      </c>
+      <c r="O2" t="n">
         <v>474171.825723617</v>
       </c>
-      <c r="L2" t="n">
-        <v>474171.8257236171</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>474171.825723617</v>
-      </c>
-      <c r="N2" t="n">
-        <v>474171.825723617</v>
-      </c>
-      <c r="O2" t="n">
-        <v>363014.7081720674</v>
-      </c>
-      <c r="P2" t="n">
-        <v>363014.7081720673</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501631</v>
       </c>
       <c r="D3" t="n">
-        <v>75551.22640712859</v>
+        <v>11527.59554998263</v>
       </c>
       <c r="E3" t="n">
-        <v>62978.77398033705</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109583.6359157431</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877263</v>
       </c>
       <c r="L3" t="n">
-        <v>61556.6282799684</v>
+        <v>9392.3017266222</v>
       </c>
       <c r="M3" t="n">
-        <v>52564.36305084739</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>130243.4307963242</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>10905.79166134951</v>
+        <v>14245.20557049258</v>
       </c>
       <c r="F4" t="n">
-        <v>10905.79166134951</v>
+        <v>14245.20557049258</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049261</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>10905.79166134951</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>10905.79166134951</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800261</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53409.41081996993</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>53409.41081996993</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>53409.41081996992</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>53409.41081996992</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,19 +26524,19 @@
         <v>105616.2592393244</v>
       </c>
       <c r="C6" t="n">
-        <v>247807.5598990343</v>
+        <v>213745.1754020246</v>
       </c>
       <c r="D6" t="n">
-        <v>210637.9837073461</v>
+        <v>274661.614564492</v>
       </c>
       <c r="E6" t="n">
-        <v>235720.7317104109</v>
+        <v>199853.2723262823</v>
       </c>
       <c r="F6" t="n">
-        <v>298699.5056907479</v>
+        <v>382208.3815473318</v>
       </c>
       <c r="G6" t="n">
-        <v>272624.7456315887</v>
+        <v>382208.3815473319</v>
       </c>
       <c r="H6" t="n">
         <v>382208.3815473319</v>
@@ -26543,25 +26545,25 @@
         <v>382208.3815473319</v>
       </c>
       <c r="J6" t="n">
-        <v>271193.9162023417</v>
+        <v>271193.9162023418</v>
       </c>
       <c r="K6" t="n">
-        <v>382208.3815473319</v>
+        <v>329162.5269085593</v>
       </c>
       <c r="L6" t="n">
-        <v>320651.7532673635</v>
+        <v>372816.0798207097</v>
       </c>
       <c r="M6" t="n">
-        <v>329644.0184964844</v>
+        <v>230008.2106093442</v>
       </c>
       <c r="N6" t="n">
         <v>382208.3815473318</v>
       </c>
       <c r="O6" t="n">
-        <v>298699.5056907479</v>
+        <v>382208.3815473318</v>
       </c>
       <c r="P6" t="n">
-        <v>298699.5056907479</v>
+        <v>382208.3815473318</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>878.4442569074002</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>878.4442569074002</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>878.4442569074</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>878.4442569074</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="D4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939294</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9290502995433</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>399.8162464773451</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939294</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995433</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939294</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995433</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>399.8162464773451</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>196.9558765199561</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,7 +27438,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>63.25348996002862</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>74.49919881847788</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>237.2929137874768</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>42.31780050516977</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,13 +27675,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>104.2627093945168</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>149.1664588683864</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>170.3016663342027</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>52.65760510107418</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>154.146866030951</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>65.20415515853226</v>
       </c>
       <c r="I10" t="n">
-        <v>58.91774794908515</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34775,22 +34777,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>262.4693064538401</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>44.02620412648071</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611194</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>276.9662446538998</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,13 +35178,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35252,16 +35254,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>636.2967496170359</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.533792496094</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>636.2967496170359</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35886,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>839.1644551322528</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1133.488385918383</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -35984,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,19 +36606,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>956.4233740001619</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36847,10 +36849,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>28.2456490882098</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,13 +37317,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>979.9836670718064</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>109.7971848772035</v>
       </c>
       <c r="M39" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>197.5036921570266</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>878.4442569074001</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L44" t="n">
-        <v>155.7360764954818</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>878.4442569073999</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>878.4442569073999</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2434921.988473339</v>
+        <v>2434396.806104306</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916861</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225.0806982601026</v>
+        <v>349.3178942517237</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>152.355512532834</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>5.64492333244486</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -904,19 +904,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>315.5768070219768</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9210525060461</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1068,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>14.7689033560442</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>55.11834888617859</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1144,13 +1144,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>243.2369870320178</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>30.1577499769271</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>73.29899740799696</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>28.46824604904426</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314378</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>104.9141091864632</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1587,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501925208</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314378</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>167.6892286721828</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>205.9320983586117</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1906,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.292363805516904</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.951038786483</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>67.84972440587259</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.1591039832982</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>16.92574903168972</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>24.40875262509081</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056497</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>90.30617524481254</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561535</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>789.5336382545983</v>
+        <v>914.6089660449919</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.2475145542517</v>
+        <v>506.3228423446453</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,49 +4491,49 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.942061378414</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1537.942061378414</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2032.928509558225</v>
+        <v>1267.076121319348</v>
       </c>
       <c r="C5" t="n">
-        <v>1594.786036741649</v>
+        <v>828.9336485027711</v>
       </c>
       <c r="D5" t="n">
-        <v>1158.876251916093</v>
+        <v>393.0238636772156</v>
       </c>
       <c r="E5" t="n">
-        <v>725.1015070743881</v>
+        <v>74.25941213986529</v>
       </c>
       <c r="F5" t="n">
-        <v>297.2340774835959</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>297.2340774835959</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233711</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>674.533170634256</v>
       </c>
       <c r="L5" t="n">
-        <v>557.7649106726458</v>
+        <v>1298.633954679035</v>
       </c>
       <c r="M5" t="n">
-        <v>557.7649106726458</v>
+        <v>1298.633954679035</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726458</v>
+        <v>1298.633954679035</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1922.734738723814</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762204</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657693</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657693</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.967455657693</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="V5" t="n">
-        <v>2075.350505591519</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="W5" t="n">
-        <v>2074.535455042957</v>
+        <v>2520.804278925291</v>
       </c>
       <c r="X5" t="n">
-        <v>2059.433395662672</v>
+        <v>2101.661815504602</v>
       </c>
       <c r="Y5" t="n">
-        <v>2055.187676002729</v>
+        <v>1693.375691804255</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993472</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>838.9151821155851</v>
+        <v>963.8992722271862</v>
       </c>
       <c r="C7" t="n">
-        <v>666.3534705988101</v>
+        <v>791.3375607104111</v>
       </c>
       <c r="D7" t="n">
-        <v>500.4754778003328</v>
+        <v>625.4595679119338</v>
       </c>
       <c r="E7" t="n">
-        <v>330.71747405107</v>
+        <v>455.701564162671</v>
       </c>
       <c r="F7" t="n">
-        <v>154.0104200128262</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
-        <v>139.0923358148018</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639182</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477224</v>
+        <v>2465.944229588825</v>
       </c>
       <c r="T7" t="n">
-        <v>2340.960139477224</v>
+        <v>2465.944229588825</v>
       </c>
       <c r="U7" t="n">
-        <v>2062.52713873033</v>
+        <v>2187.51122884193</v>
       </c>
       <c r="V7" t="n">
-        <v>1775.57163060076</v>
+        <v>1900.555720712361</v>
       </c>
       <c r="W7" t="n">
-        <v>1503.545226187052</v>
+        <v>1628.529316298653</v>
       </c>
       <c r="X7" t="n">
-        <v>1258.153471520464</v>
+        <v>1383.137561632065</v>
       </c>
       <c r="Y7" t="n">
-        <v>1030.733800834572</v>
+        <v>1155.717890946173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.879325414605</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>1885.777256638432</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>1449.867471812877</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>1016.092726971172</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>588.2252973803797</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.341725488303</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>1961.486270899337</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X8" t="n">
-        <v>1946.384211519051</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1942.138491859109</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1605.602207829152</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>900.7186013536161</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1568898368411</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1568898368411</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>558.3988860875784</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="F10" t="n">
-        <v>381.6918320493346</v>
+        <v>247.7482955927446</v>
       </c>
       <c r="G10" t="n">
-        <v>216.1005570751623</v>
+        <v>82.15702061857226</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>82.15702061857226</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2124.330557968361</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.375049838791</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1565.348645425083</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1319.956890758495</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1092.537220072603</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>475.2748675296863</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>475.2748675296863</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.7546776883896</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>639.1929661716146</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>639.1929661716146</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
         <v>190.9207894961043</v>
@@ -5202,49 +5202,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.5989800066025</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745635</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113121</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309245</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173577</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173577</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471574</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050029</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303134</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173565</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759856</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.992967093269</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407377</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5311,19 +5311,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>949.5782250957668</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2173.190181710511</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V16" t="n">
-        <v>1886.234673580942</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W16" t="n">
-        <v>1614.208269167233</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X16" t="n">
-        <v>1368.816514500646</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.396843814754</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5518,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.288338304628</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.348304557487</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.348304557487</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5740,7 +5740,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5752,49 +5752,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5831,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>475.2748675296854</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>475.2748675296854</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1737.537409152261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6645,25 +6645,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2701.823733979953</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2455.944287558408</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2177.511286811513</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1890.555778681944</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1618.529374268236</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1373.137619601648</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
         <v>1373.137619601648</v>
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7016,25 +7016,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1327.049347523737</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1036.216302815308</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>863.6545912985331</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>697.7765985000558</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2538.261260176947</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2259.828259430053</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.872751300483</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1700.846346886775</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.454592220187</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1228.034921534295</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7207,7 +7207,7 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7219,7 +7219,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>210.9600532992111</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>210.9600532992111</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>210.9600532992111</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7411,28 +7411,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7450,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3346.878440713112</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>3174.316729196337</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>3008.43873639786</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>2838.680732648597</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>2496.382403636181</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>2496.382403636181</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>5113.04201353898</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>5094.802844496296</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>4848.923398074751</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>4570.490397327857</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V43" t="n">
-        <v>4283.534889198288</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>4011.508484784579</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>3766.116730117991</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>3538.6970594321</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7648,52 +7648,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>126.8499155856325</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8139,7 +8139,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -8148,16 +8148,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.2263144949848</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611194</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>630.404832368464</v>
+        <v>604.933930050546</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741867</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8388,13 +8388,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>276.9662446538998</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>376.7818457160674</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>839.1644551322528</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9418,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9889,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>376.7818457160665</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10129,10 +10129,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>446.2295987639959</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>979.9836670718064</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,19 +10673,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>127.53932913075</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>469.2069973599082</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.14631452530692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>229.4233680290218</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.146865729424519</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>69.71657238081406</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>102.9863699957347</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.9863699957346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6516710866793</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>73.62918697961807</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>461267.8196964595</v>
+        <v>461267.8196964596</v>
       </c>
     </row>
     <row r="6">
@@ -26316,16 +26316,16 @@
         <v>482532.5879013676</v>
       </c>
       <c r="C2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013676</v>
       </c>
       <c r="D2" t="n">
         <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>474171.8257236172</v>
+        <v>474171.825723617</v>
       </c>
       <c r="F2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
         <v>474171.825723617</v>
@@ -26337,7 +26337,7 @@
         <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="K2" t="n">
         <v>474171.8257236171</v>
@@ -26346,13 +26346,13 @@
         <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="O2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="P2" t="n">
         <v>474171.825723617</v>
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501631</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998263</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877263</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.3017266222</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,22 +26420,22 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>130243.4307963242</v>
+        <v>130243.4307963243</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251353</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>14245.20557049258</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>14245.20557049258</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049259</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049261</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800261</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26487,7 +26487,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26511,7 +26511,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105616.2592393244</v>
+        <v>105616.2592393243</v>
       </c>
       <c r="C6" t="n">
         <v>213745.1754020246</v>
       </c>
       <c r="D6" t="n">
-        <v>274661.614564492</v>
+        <v>274661.6145644919</v>
       </c>
       <c r="E6" t="n">
-        <v>199853.2723262823</v>
+        <v>199830.0479868995</v>
       </c>
       <c r="F6" t="n">
-        <v>382208.3815473318</v>
+        <v>382185.1572079492</v>
       </c>
       <c r="G6" t="n">
-        <v>382208.3815473319</v>
+        <v>382185.1572079492</v>
       </c>
       <c r="H6" t="n">
-        <v>382208.3815473319</v>
+        <v>382185.1572079491</v>
       </c>
       <c r="I6" t="n">
-        <v>382208.3815473319</v>
+        <v>382185.1572079492</v>
       </c>
       <c r="J6" t="n">
-        <v>271193.9162023418</v>
+        <v>271170.691862959</v>
       </c>
       <c r="K6" t="n">
-        <v>329162.5269085593</v>
+        <v>329139.3025691768</v>
       </c>
       <c r="L6" t="n">
-        <v>372816.0798207097</v>
+        <v>372792.8554813269</v>
       </c>
       <c r="M6" t="n">
-        <v>230008.2106093442</v>
+        <v>229984.9862699616</v>
       </c>
       <c r="N6" t="n">
-        <v>382208.3815473318</v>
+        <v>382185.1572079492</v>
       </c>
       <c r="O6" t="n">
-        <v>382208.3815473318</v>
+        <v>382185.1572079493</v>
       </c>
       <c r="P6" t="n">
-        <v>382208.3815473318</v>
+        <v>382185.1572079491</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939294</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939294</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939294</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.9558765199561</v>
+        <v>72.71868052833497</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27438,10 +27438,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18.4805818687733</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>237.2929137874768</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>113.8601903713109</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>42.31780050516977</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27675,16 +27675,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>149.1664588683864</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>102.5306061288047</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>154.146866030951</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>226.4723296792262</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>65.20415515853226</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>59.30510368402715</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34859,7 +34859,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -34868,16 +34868,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.2263144949848</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611194</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>630.404832368464</v>
+        <v>604.933930050546</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741867</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35108,13 +35108,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>276.9662446538998</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>376.7818457160674</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.533792496094</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>839.1644551322528</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36138,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,10 +36606,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>376.7818457160665</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36849,10 +36849,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>446.2295987639959</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>979.9836670718064</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37326,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>127.53932913075</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>469.2069973599082</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
